--- a/documents/要件定義.xlsx
+++ b/documents/要件定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hibik\source\web\square\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6935F7-FC6D-4386-B255-8EE69160C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C72C2-F5E0-47D6-90FF-6AED28D93D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14325" yWindow="1140" windowWidth="22230" windowHeight="12750" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14325" yWindow="1140" windowWidth="22230" windowHeight="12750" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -5333,7 +5333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5451,6 +5451,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5629,9 +5631,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -20859,118 +20858,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="122" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="124"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="126"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="127"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="129"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="D5" s="1" t="s">
@@ -23026,7 +23025,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="C3:AM57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:AM33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -23039,1176 +23040,1176 @@
       </c>
     </row>
     <row r="4" spans="3:39" ht="15" customHeight="1">
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="87"/>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="90"/>
     </row>
     <row r="5" spans="3:39" ht="15" customHeight="1">
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="90"/>
-      <c r="AA5" s="90"/>
-      <c r="AB5" s="90"/>
-      <c r="AC5" s="90"/>
-      <c r="AD5" s="90"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="90"/>
-      <c r="AG5" s="90"/>
-      <c r="AH5" s="90"/>
-      <c r="AI5" s="90"/>
-      <c r="AJ5" s="90"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="90"/>
-      <c r="AM5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
+      <c r="AF5" s="92"/>
+      <c r="AG5" s="92"/>
+      <c r="AH5" s="92"/>
+      <c r="AI5" s="92"/>
+      <c r="AJ5" s="92"/>
+      <c r="AK5" s="92"/>
+      <c r="AL5" s="92"/>
+      <c r="AM5" s="93"/>
     </row>
     <row r="6" spans="3:39" ht="15" customHeight="1">
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="90"/>
-      <c r="AA6" s="90"/>
-      <c r="AB6" s="90"/>
-      <c r="AC6" s="90"/>
-      <c r="AD6" s="90"/>
-      <c r="AE6" s="90"/>
-      <c r="AF6" s="90"/>
-      <c r="AG6" s="90"/>
-      <c r="AH6" s="90"/>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="92"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
+      <c r="AF6" s="92"/>
+      <c r="AG6" s="92"/>
+      <c r="AH6" s="92"/>
+      <c r="AI6" s="92"/>
+      <c r="AJ6" s="92"/>
+      <c r="AK6" s="92"/>
+      <c r="AL6" s="92"/>
+      <c r="AM6" s="93"/>
     </row>
     <row r="7" spans="3:39" ht="15" customHeight="1">
-      <c r="C7" s="89"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
-      <c r="AK7" s="90"/>
-      <c r="AL7" s="90"/>
-      <c r="AM7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="93"/>
     </row>
     <row r="8" spans="3:39" ht="15" customHeight="1">
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
-      <c r="V8" s="90"/>
-      <c r="W8" s="90"/>
-      <c r="X8" s="90"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="90"/>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="90"/>
-      <c r="AE8" s="90"/>
-      <c r="AF8" s="90"/>
-      <c r="AG8" s="90"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="90"/>
-      <c r="AJ8" s="90"/>
-      <c r="AK8" s="90"/>
-      <c r="AL8" s="90"/>
-      <c r="AM8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93"/>
     </row>
     <row r="9" spans="3:39" ht="15" customHeight="1">
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="93"/>
     </row>
     <row r="10" spans="3:39" ht="15" customHeight="1">
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="90"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="90"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="90"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="90"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="90"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="90"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="90"/>
-      <c r="AH10" s="90"/>
-      <c r="AI10" s="90"/>
-      <c r="AJ10" s="90"/>
-      <c r="AK10" s="90"/>
-      <c r="AL10" s="90"/>
-      <c r="AM10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="92"/>
+      <c r="AM10" s="93"/>
     </row>
     <row r="11" spans="3:39" ht="15" customHeight="1">
-      <c r="C11" s="89"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="90"/>
-      <c r="AL11" s="90"/>
-      <c r="AM11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="92"/>
+      <c r="AM11" s="93"/>
     </row>
     <row r="12" spans="3:39" ht="15" customHeight="1">
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="90"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="90"/>
-      <c r="AH12" s="90"/>
-      <c r="AI12" s="90"/>
-      <c r="AJ12" s="90"/>
-      <c r="AK12" s="90"/>
-      <c r="AL12" s="90"/>
-      <c r="AM12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="92"/>
+      <c r="AM12" s="93"/>
     </row>
     <row r="13" spans="3:39" ht="15" customHeight="1">
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="90"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="90"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="90"/>
-      <c r="AI13" s="90"/>
-      <c r="AJ13" s="90"/>
-      <c r="AK13" s="90"/>
-      <c r="AL13" s="90"/>
-      <c r="AM13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="92"/>
+      <c r="AM13" s="93"/>
     </row>
     <row r="14" spans="3:39" ht="15" customHeight="1">
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="90"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="90"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="90"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="90"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="90"/>
-      <c r="AH14" s="90"/>
-      <c r="AI14" s="90"/>
-      <c r="AJ14" s="90"/>
-      <c r="AK14" s="90"/>
-      <c r="AL14" s="90"/>
-      <c r="AM14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="93"/>
     </row>
     <row r="15" spans="3:39" ht="15" customHeight="1">
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="90"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="90"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="90"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="90"/>
-      <c r="AH15" s="90"/>
-      <c r="AI15" s="90"/>
-      <c r="AJ15" s="90"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="90"/>
-      <c r="AM15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="92"/>
+      <c r="AM15" s="93"/>
     </row>
     <row r="16" spans="3:39" ht="15" customHeight="1">
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="90"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="90"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="90"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="90"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="90"/>
-      <c r="AH16" s="90"/>
-      <c r="AI16" s="90"/>
-      <c r="AJ16" s="90"/>
-      <c r="AK16" s="90"/>
-      <c r="AL16" s="90"/>
-      <c r="AM16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="92"/>
+      <c r="AM16" s="93"/>
     </row>
     <row r="17" spans="3:39" ht="15" customHeight="1">
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="90"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="90"/>
-      <c r="AI17" s="90"/>
-      <c r="AJ17" s="90"/>
-      <c r="AK17" s="90"/>
-      <c r="AL17" s="90"/>
-      <c r="AM17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="92"/>
+      <c r="AM17" s="93"/>
     </row>
     <row r="18" spans="3:39" ht="15" customHeight="1">
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="90"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="90"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="90"/>
-      <c r="AI18" s="90"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="90"/>
-      <c r="AL18" s="90"/>
-      <c r="AM18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="92"/>
+      <c r="AM18" s="93"/>
     </row>
     <row r="19" spans="3:39" ht="15" customHeight="1">
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="90"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="90"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="90"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="90"/>
-      <c r="AL19" s="90"/>
-      <c r="AM19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="92"/>
+      <c r="AM19" s="93"/>
     </row>
     <row r="20" spans="3:39" ht="15" customHeight="1">
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="90"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="90"/>
-      <c r="AH20" s="90"/>
-      <c r="AI20" s="90"/>
-      <c r="AJ20" s="90"/>
-      <c r="AK20" s="90"/>
-      <c r="AL20" s="90"/>
-      <c r="AM20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="93"/>
     </row>
     <row r="21" spans="3:39" ht="15" customHeight="1">
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="90"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="90"/>
-      <c r="AH21" s="90"/>
-      <c r="AI21" s="90"/>
-      <c r="AJ21" s="90"/>
-      <c r="AK21" s="90"/>
-      <c r="AL21" s="90"/>
-      <c r="AM21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="93"/>
     </row>
     <row r="22" spans="3:39" ht="15" customHeight="1">
-      <c r="C22" s="89"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="90"/>
-      <c r="AI22" s="90"/>
-      <c r="AJ22" s="90"/>
-      <c r="AK22" s="90"/>
-      <c r="AL22" s="90"/>
-      <c r="AM22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="92"/>
+      <c r="AM22" s="93"/>
     </row>
     <row r="23" spans="3:39" ht="15" customHeight="1">
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="90"/>
-      <c r="AI23" s="90"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="90"/>
-      <c r="AL23" s="90"/>
-      <c r="AM23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="93"/>
     </row>
     <row r="24" spans="3:39" ht="15" customHeight="1">
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="90"/>
-      <c r="W24" s="90"/>
-      <c r="X24" s="90"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="90"/>
-      <c r="AL24" s="90"/>
-      <c r="AM24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="92"/>
+      <c r="Q24" s="92"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="93"/>
     </row>
     <row r="25" spans="3:39" ht="15" customHeight="1">
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="90"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="90"/>
-      <c r="AI25" s="90"/>
-      <c r="AJ25" s="90"/>
-      <c r="AK25" s="90"/>
-      <c r="AL25" s="90"/>
-      <c r="AM25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="92"/>
+      <c r="AM25" s="93"/>
     </row>
     <row r="26" spans="3:39" ht="15" customHeight="1">
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="90"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="90"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="90"/>
-      <c r="AI26" s="90"/>
-      <c r="AJ26" s="90"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="90"/>
-      <c r="AM26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="93"/>
     </row>
     <row r="27" spans="3:39" ht="15" customHeight="1">
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="90"/>
-      <c r="U27" s="90"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="90"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="90"/>
-      <c r="AC27" s="90"/>
-      <c r="AD27" s="90"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="90"/>
-      <c r="AI27" s="90"/>
-      <c r="AJ27" s="90"/>
-      <c r="AK27" s="90"/>
-      <c r="AL27" s="90"/>
-      <c r="AM27" s="91"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="93"/>
     </row>
     <row r="28" spans="3:39" ht="15" customHeight="1">
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="90"/>
-      <c r="AH28" s="90"/>
-      <c r="AI28" s="90"/>
-      <c r="AJ28" s="90"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="90"/>
-      <c r="AM28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="92"/>
+      <c r="AM28" s="93"/>
     </row>
     <row r="29" spans="3:39" ht="15" customHeight="1">
-      <c r="C29" s="89"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="90"/>
-      <c r="W29" s="90"/>
-      <c r="X29" s="90"/>
-      <c r="Y29" s="90"/>
-      <c r="Z29" s="90"/>
-      <c r="AA29" s="90"/>
-      <c r="AB29" s="90"/>
-      <c r="AC29" s="90"/>
-      <c r="AD29" s="90"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="90"/>
-      <c r="AH29" s="90"/>
-      <c r="AI29" s="90"/>
-      <c r="AJ29" s="90"/>
-      <c r="AK29" s="90"/>
-      <c r="AL29" s="90"/>
-      <c r="AM29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="92"/>
+      <c r="AM29" s="93"/>
     </row>
     <row r="30" spans="3:39" ht="15" customHeight="1">
-      <c r="C30" s="89"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="90"/>
-      <c r="U30" s="90"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-      <c r="Y30" s="90"/>
-      <c r="Z30" s="90"/>
-      <c r="AA30" s="90"/>
-      <c r="AB30" s="90"/>
-      <c r="AC30" s="90"/>
-      <c r="AD30" s="90"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="90"/>
-      <c r="AH30" s="90"/>
-      <c r="AI30" s="90"/>
-      <c r="AJ30" s="90"/>
-      <c r="AK30" s="90"/>
-      <c r="AL30" s="90"/>
-      <c r="AM30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
+      <c r="AL30" s="92"/>
+      <c r="AM30" s="93"/>
     </row>
     <row r="31" spans="3:39" ht="15" customHeight="1">
-      <c r="C31" s="89"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="90"/>
-      <c r="T31" s="90"/>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
-      <c r="AC31" s="90"/>
-      <c r="AD31" s="90"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="90"/>
-      <c r="AH31" s="90"/>
-      <c r="AI31" s="90"/>
-      <c r="AJ31" s="90"/>
-      <c r="AK31" s="90"/>
-      <c r="AL31" s="90"/>
-      <c r="AM31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="92"/>
+      <c r="Q31" s="92"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="92"/>
+      <c r="AM31" s="93"/>
     </row>
     <row r="32" spans="3:39" ht="15" customHeight="1">
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="90"/>
-      <c r="AL32" s="90"/>
-      <c r="AM32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="93"/>
     </row>
     <row r="33" spans="3:39" ht="15" customHeight="1">
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="93"/>
-      <c r="AJ33" s="93"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="96"/>
     </row>
     <row r="35" spans="3:39" ht="15" customHeight="1">
       <c r="C35" s="67" t="s">
@@ -24377,435 +24378,435 @@
       </c>
     </row>
     <row r="43" spans="3:39" ht="15" customHeight="1">
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="78"/>
-      <c r="U43" s="78"/>
-      <c r="V43" s="78"/>
-      <c r="W43" s="78"/>
-      <c r="X43" s="78"/>
-      <c r="Y43" s="78"/>
-      <c r="Z43" s="78"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="78"/>
-      <c r="AC43" s="78"/>
-      <c r="AD43" s="78"/>
-      <c r="AE43" s="78"/>
-      <c r="AF43" s="78"/>
-      <c r="AG43" s="78"/>
-      <c r="AH43" s="78"/>
-      <c r="AI43" s="78"/>
-      <c r="AJ43" s="78"/>
-      <c r="AK43" s="78"/>
-      <c r="AL43" s="78"/>
-      <c r="AM43" s="79"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="80"/>
+      <c r="AM43" s="81"/>
     </row>
     <row r="44" spans="3:39" ht="15" customHeight="1">
-      <c r="C44" s="80"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="81"/>
-      <c r="T44" s="81"/>
-      <c r="U44" s="81"/>
-      <c r="V44" s="81"/>
-      <c r="W44" s="81"/>
-      <c r="X44" s="81"/>
-      <c r="Y44" s="81"/>
-      <c r="Z44" s="81"/>
-      <c r="AA44" s="81"/>
-      <c r="AB44" s="81"/>
-      <c r="AC44" s="81"/>
-      <c r="AD44" s="81"/>
-      <c r="AE44" s="81"/>
-      <c r="AF44" s="81"/>
-      <c r="AG44" s="81"/>
-      <c r="AH44" s="81"/>
-      <c r="AI44" s="81"/>
-      <c r="AJ44" s="81"/>
-      <c r="AK44" s="81"/>
-      <c r="AL44" s="81"/>
-      <c r="AM44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="83"/>
+      <c r="K44" s="83"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="83"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="83"/>
+      <c r="X44" s="83"/>
+      <c r="Y44" s="83"/>
+      <c r="Z44" s="83"/>
+      <c r="AA44" s="83"/>
+      <c r="AB44" s="83"/>
+      <c r="AC44" s="83"/>
+      <c r="AD44" s="83"/>
+      <c r="AE44" s="83"/>
+      <c r="AF44" s="83"/>
+      <c r="AG44" s="83"/>
+      <c r="AH44" s="83"/>
+      <c r="AI44" s="83"/>
+      <c r="AJ44" s="83"/>
+      <c r="AK44" s="83"/>
+      <c r="AL44" s="83"/>
+      <c r="AM44" s="84"/>
     </row>
     <row r="45" spans="3:39" ht="15" customHeight="1">
-      <c r="C45" s="80"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="81"/>
-      <c r="AF45" s="81"/>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="81"/>
-      <c r="AM45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
+      <c r="I45" s="83"/>
+      <c r="J45" s="83"/>
+      <c r="K45" s="83"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="83"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="83"/>
+      <c r="U45" s="83"/>
+      <c r="V45" s="83"/>
+      <c r="W45" s="83"/>
+      <c r="X45" s="83"/>
+      <c r="Y45" s="83"/>
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="83"/>
+      <c r="AB45" s="83"/>
+      <c r="AC45" s="83"/>
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="83"/>
+      <c r="AF45" s="83"/>
+      <c r="AG45" s="83"/>
+      <c r="AH45" s="83"/>
+      <c r="AI45" s="83"/>
+      <c r="AJ45" s="83"/>
+      <c r="AK45" s="83"/>
+      <c r="AL45" s="83"/>
+      <c r="AM45" s="84"/>
     </row>
     <row r="46" spans="3:39" ht="15" customHeight="1">
-      <c r="C46" s="80"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+      <c r="K46" s="83"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="83"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="83"/>
+      <c r="U46" s="83"/>
+      <c r="V46" s="83"/>
+      <c r="W46" s="83"/>
+      <c r="X46" s="83"/>
+      <c r="Y46" s="83"/>
+      <c r="Z46" s="83"/>
+      <c r="AA46" s="83"/>
+      <c r="AB46" s="83"/>
+      <c r="AC46" s="83"/>
+      <c r="AD46" s="83"/>
+      <c r="AE46" s="83"/>
+      <c r="AF46" s="83"/>
+      <c r="AG46" s="83"/>
+      <c r="AH46" s="83"/>
+      <c r="AI46" s="83"/>
+      <c r="AJ46" s="83"/>
+      <c r="AK46" s="83"/>
+      <c r="AL46" s="83"/>
+      <c r="AM46" s="84"/>
     </row>
     <row r="47" spans="3:39" ht="15" customHeight="1">
-      <c r="C47" s="80"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="81"/>
-      <c r="AM47" s="82"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+      <c r="K47" s="83"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="83"/>
+      <c r="AC47" s="83"/>
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="83"/>
+      <c r="AF47" s="83"/>
+      <c r="AG47" s="83"/>
+      <c r="AH47" s="83"/>
+      <c r="AI47" s="83"/>
+      <c r="AJ47" s="83"/>
+      <c r="AK47" s="83"/>
+      <c r="AL47" s="83"/>
+      <c r="AM47" s="84"/>
     </row>
     <row r="48" spans="3:39" ht="15" customHeight="1">
-      <c r="C48" s="80"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
-      <c r="R48" s="81"/>
-      <c r="S48" s="81"/>
-      <c r="T48" s="81"/>
-      <c r="U48" s="81"/>
-      <c r="V48" s="81"/>
-      <c r="W48" s="81"/>
-      <c r="X48" s="81"/>
-      <c r="Y48" s="81"/>
-      <c r="Z48" s="81"/>
-      <c r="AA48" s="81"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="81"/>
-      <c r="AE48" s="81"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="81"/>
-      <c r="AH48" s="81"/>
-      <c r="AI48" s="81"/>
-      <c r="AJ48" s="81"/>
-      <c r="AK48" s="81"/>
-      <c r="AL48" s="81"/>
-      <c r="AM48" s="82"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="83"/>
+      <c r="W48" s="83"/>
+      <c r="X48" s="83"/>
+      <c r="Y48" s="83"/>
+      <c r="Z48" s="83"/>
+      <c r="AA48" s="83"/>
+      <c r="AB48" s="83"/>
+      <c r="AC48" s="83"/>
+      <c r="AD48" s="83"/>
+      <c r="AE48" s="83"/>
+      <c r="AF48" s="83"/>
+      <c r="AG48" s="83"/>
+      <c r="AH48" s="83"/>
+      <c r="AI48" s="83"/>
+      <c r="AJ48" s="83"/>
+      <c r="AK48" s="83"/>
+      <c r="AL48" s="83"/>
+      <c r="AM48" s="84"/>
     </row>
     <row r="49" spans="3:39" ht="15" customHeight="1">
-      <c r="C49" s="80"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="81"/>
-      <c r="AE49" s="81"/>
-      <c r="AF49" s="81"/>
-      <c r="AG49" s="81"/>
-      <c r="AH49" s="81"/>
-      <c r="AI49" s="81"/>
-      <c r="AJ49" s="81"/>
-      <c r="AK49" s="81"/>
-      <c r="AL49" s="81"/>
-      <c r="AM49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="83"/>
+      <c r="U49" s="83"/>
+      <c r="V49" s="83"/>
+      <c r="W49" s="83"/>
+      <c r="X49" s="83"/>
+      <c r="Y49" s="83"/>
+      <c r="Z49" s="83"/>
+      <c r="AA49" s="83"/>
+      <c r="AB49" s="83"/>
+      <c r="AC49" s="83"/>
+      <c r="AD49" s="83"/>
+      <c r="AE49" s="83"/>
+      <c r="AF49" s="83"/>
+      <c r="AG49" s="83"/>
+      <c r="AH49" s="83"/>
+      <c r="AI49" s="83"/>
+      <c r="AJ49" s="83"/>
+      <c r="AK49" s="83"/>
+      <c r="AL49" s="83"/>
+      <c r="AM49" s="84"/>
     </row>
     <row r="50" spans="3:39" ht="15" customHeight="1">
-      <c r="C50" s="80"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="81"/>
-      <c r="R50" s="81"/>
-      <c r="S50" s="81"/>
-      <c r="T50" s="81"/>
-      <c r="U50" s="81"/>
-      <c r="V50" s="81"/>
-      <c r="W50" s="81"/>
-      <c r="X50" s="81"/>
-      <c r="Y50" s="81"/>
-      <c r="Z50" s="81"/>
-      <c r="AA50" s="81"/>
-      <c r="AB50" s="81"/>
-      <c r="AC50" s="81"/>
-      <c r="AD50" s="81"/>
-      <c r="AE50" s="81"/>
-      <c r="AF50" s="81"/>
-      <c r="AG50" s="81"/>
-      <c r="AH50" s="81"/>
-      <c r="AI50" s="81"/>
-      <c r="AJ50" s="81"/>
-      <c r="AK50" s="81"/>
-      <c r="AL50" s="81"/>
-      <c r="AM50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="83"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="83"/>
+      <c r="V50" s="83"/>
+      <c r="W50" s="83"/>
+      <c r="X50" s="83"/>
+      <c r="Y50" s="83"/>
+      <c r="Z50" s="83"/>
+      <c r="AA50" s="83"/>
+      <c r="AB50" s="83"/>
+      <c r="AC50" s="83"/>
+      <c r="AD50" s="83"/>
+      <c r="AE50" s="83"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="83"/>
+      <c r="AH50" s="83"/>
+      <c r="AI50" s="83"/>
+      <c r="AJ50" s="83"/>
+      <c r="AK50" s="83"/>
+      <c r="AL50" s="83"/>
+      <c r="AM50" s="84"/>
     </row>
     <row r="51" spans="3:39" ht="15" customHeight="1">
-      <c r="C51" s="80"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
-      <c r="Q51" s="81"/>
-      <c r="R51" s="81"/>
-      <c r="S51" s="81"/>
-      <c r="T51" s="81"/>
-      <c r="U51" s="81"/>
-      <c r="V51" s="81"/>
-      <c r="W51" s="81"/>
-      <c r="X51" s="81"/>
-      <c r="Y51" s="81"/>
-      <c r="Z51" s="81"/>
-      <c r="AA51" s="81"/>
-      <c r="AB51" s="81"/>
-      <c r="AC51" s="81"/>
-      <c r="AD51" s="81"/>
-      <c r="AE51" s="81"/>
-      <c r="AF51" s="81"/>
-      <c r="AG51" s="81"/>
-      <c r="AH51" s="81"/>
-      <c r="AI51" s="81"/>
-      <c r="AJ51" s="81"/>
-      <c r="AK51" s="81"/>
-      <c r="AL51" s="81"/>
-      <c r="AM51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="83"/>
+      <c r="V51" s="83"/>
+      <c r="W51" s="83"/>
+      <c r="X51" s="83"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="83"/>
+      <c r="AA51" s="83"/>
+      <c r="AB51" s="83"/>
+      <c r="AC51" s="83"/>
+      <c r="AD51" s="83"/>
+      <c r="AE51" s="83"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="83"/>
+      <c r="AH51" s="83"/>
+      <c r="AI51" s="83"/>
+      <c r="AJ51" s="83"/>
+      <c r="AK51" s="83"/>
+      <c r="AL51" s="83"/>
+      <c r="AM51" s="84"/>
     </row>
     <row r="52" spans="3:39" ht="15" customHeight="1">
-      <c r="C52" s="80"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
-      <c r="Q52" s="81"/>
-      <c r="R52" s="81"/>
-      <c r="S52" s="81"/>
-      <c r="T52" s="81"/>
-      <c r="U52" s="81"/>
-      <c r="V52" s="81"/>
-      <c r="W52" s="81"/>
-      <c r="X52" s="81"/>
-      <c r="Y52" s="81"/>
-      <c r="Z52" s="81"/>
-      <c r="AA52" s="81"/>
-      <c r="AB52" s="81"/>
-      <c r="AC52" s="81"/>
-      <c r="AD52" s="81"/>
-      <c r="AE52" s="81"/>
-      <c r="AF52" s="81"/>
-      <c r="AG52" s="81"/>
-      <c r="AH52" s="81"/>
-      <c r="AI52" s="81"/>
-      <c r="AJ52" s="81"/>
-      <c r="AK52" s="81"/>
-      <c r="AL52" s="81"/>
-      <c r="AM52" s="82"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
+      <c r="X52" s="83"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="83"/>
+      <c r="AA52" s="83"/>
+      <c r="AB52" s="83"/>
+      <c r="AC52" s="83"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="83"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="83"/>
+      <c r="AH52" s="83"/>
+      <c r="AI52" s="83"/>
+      <c r="AJ52" s="83"/>
+      <c r="AK52" s="83"/>
+      <c r="AL52" s="83"/>
+      <c r="AM52" s="84"/>
     </row>
     <row r="53" spans="3:39" ht="15" customHeight="1">
-      <c r="C53" s="83"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="84"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="84"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="84"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="86"/>
+      <c r="AB53" s="86"/>
+      <c r="AC53" s="86"/>
+      <c r="AD53" s="86"/>
+      <c r="AE53" s="86"/>
+      <c r="AF53" s="86"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="86"/>
+      <c r="AK53" s="86"/>
+      <c r="AL53" s="86"/>
+      <c r="AM53" s="87"/>
     </row>
     <row r="55" spans="3:39" ht="15" customHeight="1">
       <c r="C55" s="65" t="s">
@@ -24854,7 +24855,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:BB272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A190" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AS198" sqref="AS198"/>
     </sheetView>
   </sheetViews>
@@ -24866,118 +24867,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="101" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="103" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="101"/>
-      <c r="BA2" s="101"/>
-      <c r="BB2" s="102"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="103"/>
+      <c r="BA2" s="103"/>
+      <c r="BB2" s="104"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="104"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="105"/>
+      <c r="BA3" s="105"/>
+      <c r="BB3" s="106"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="B5" s="35" t="s">
@@ -25206,37 +25207,37 @@
       <c r="K18" s="27"/>
       <c r="L18" s="28"/>
       <c r="M18" s="38"/>
-      <c r="S18" s="109" t="s">
+      <c r="S18" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="T18" s="110"/>
-      <c r="U18" s="107" t="s">
+      <c r="T18" s="112"/>
+      <c r="U18" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="108"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="108"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="109" t="s">
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="110"/>
+      <c r="Z18" s="110"/>
+      <c r="AA18" s="110"/>
+      <c r="AB18" s="110"/>
+      <c r="AC18" s="110"/>
+      <c r="AD18" s="110"/>
+      <c r="AE18" s="110"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="AH18" s="110"/>
-      <c r="AI18" s="110"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="110"/>
-      <c r="AM18" s="110"/>
-      <c r="AN18" s="110"/>
-      <c r="AO18" s="110"/>
-      <c r="AP18" s="110"/>
-      <c r="AQ18" s="111"/>
+      <c r="AH18" s="112"/>
+      <c r="AI18" s="112"/>
+      <c r="AJ18" s="112"/>
+      <c r="AK18" s="112"/>
+      <c r="AL18" s="112"/>
+      <c r="AM18" s="112"/>
+      <c r="AN18" s="112"/>
+      <c r="AO18" s="112"/>
+      <c r="AP18" s="112"/>
+      <c r="AQ18" s="113"/>
       <c r="BB18" s="31"/>
     </row>
     <row r="19" spans="2:54" ht="15" customHeight="1">
@@ -25250,10 +25251,10 @@
       <c r="K19" s="30"/>
       <c r="L19" s="42"/>
       <c r="M19" s="31"/>
-      <c r="S19" s="114" t="s">
+      <c r="S19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="115"/>
+      <c r="T19" s="117"/>
       <c r="U19" s="43" t="s">
         <v>38</v>
       </c>
@@ -25268,19 +25269,19 @@
       <c r="AD19" s="40"/>
       <c r="AE19" s="40"/>
       <c r="AF19" s="40"/>
-      <c r="AG19" s="112" t="s">
+      <c r="AG19" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="AH19" s="105"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="105"/>
-      <c r="AM19" s="105"/>
-      <c r="AN19" s="105"/>
-      <c r="AO19" s="105"/>
-      <c r="AP19" s="105"/>
-      <c r="AQ19" s="113"/>
+      <c r="AH19" s="107"/>
+      <c r="AI19" s="107"/>
+      <c r="AJ19" s="107"/>
+      <c r="AK19" s="107"/>
+      <c r="AL19" s="107"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="107"/>
+      <c r="AP19" s="107"/>
+      <c r="AQ19" s="115"/>
       <c r="BB19" s="31"/>
     </row>
     <row r="20" spans="2:54" ht="15" customHeight="1">
@@ -25294,10 +25295,10 @@
       <c r="K20" s="39"/>
       <c r="L20" s="33"/>
       <c r="M20" s="34"/>
-      <c r="S20" s="114" t="s">
+      <c r="S20" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="115"/>
+      <c r="T20" s="117"/>
       <c r="U20" s="43" t="s">
         <v>36</v>
       </c>
@@ -25312,19 +25313,19 @@
       <c r="AD20" s="40"/>
       <c r="AE20" s="40"/>
       <c r="AF20" s="40"/>
-      <c r="AG20" s="112" t="s">
+      <c r="AG20" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AH20" s="105"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="105"/>
-      <c r="AK20" s="105"/>
-      <c r="AL20" s="105"/>
-      <c r="AM20" s="105"/>
-      <c r="AN20" s="105"/>
-      <c r="AO20" s="105"/>
-      <c r="AP20" s="105"/>
-      <c r="AQ20" s="113"/>
+      <c r="AH20" s="107"/>
+      <c r="AI20" s="107"/>
+      <c r="AJ20" s="107"/>
+      <c r="AK20" s="107"/>
+      <c r="AL20" s="107"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="107"/>
+      <c r="AP20" s="107"/>
+      <c r="AQ20" s="115"/>
       <c r="BB20" s="31"/>
     </row>
     <row r="21" spans="2:54" ht="15" customHeight="1">
@@ -25338,10 +25339,10 @@
       <c r="K21" s="27"/>
       <c r="L21" s="28"/>
       <c r="M21" s="38"/>
-      <c r="S21" s="114" t="s">
+      <c r="S21" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="T21" s="115"/>
+      <c r="T21" s="117"/>
       <c r="U21" s="43" t="s">
         <v>37</v>
       </c>
@@ -25356,19 +25357,19 @@
       <c r="AD21" s="40"/>
       <c r="AE21" s="40"/>
       <c r="AF21" s="40"/>
-      <c r="AG21" s="112" t="s">
+      <c r="AG21" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="105"/>
-      <c r="AK21" s="105"/>
-      <c r="AL21" s="105"/>
-      <c r="AM21" s="105"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="105"/>
-      <c r="AP21" s="105"/>
-      <c r="AQ21" s="113"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="107"/>
+      <c r="AK21" s="107"/>
+      <c r="AL21" s="107"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="107"/>
+      <c r="AP21" s="107"/>
+      <c r="AQ21" s="115"/>
       <c r="BB21" s="31"/>
     </row>
     <row r="22" spans="2:54" ht="15" customHeight="1">
@@ -26421,28 +26422,28 @@
     <row r="71" spans="2:54" ht="15" customHeight="1">
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="105" t="s">
+      <c r="D71" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="N71" s="105" t="s">
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="N71" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="O71" s="105"/>
-      <c r="P71" s="105"/>
-      <c r="X71" s="105" t="s">
+      <c r="O71" s="107"/>
+      <c r="P71" s="107"/>
+      <c r="X71" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="Y71" s="105"/>
-      <c r="Z71" s="105"/>
-      <c r="AG71" s="106" t="s">
+      <c r="Y71" s="107"/>
+      <c r="Z71" s="107"/>
+      <c r="AG71" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="AH71" s="106"/>
-      <c r="AI71" s="106"/>
-      <c r="AJ71" s="106"/>
-      <c r="AK71" s="106"/>
+      <c r="AH71" s="108"/>
+      <c r="AI71" s="108"/>
+      <c r="AJ71" s="108"/>
+      <c r="AK71" s="108"/>
       <c r="AU71" s="31"/>
       <c r="BB71" s="31"/>
     </row>
@@ -28346,53 +28347,6 @@
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
       <c r="D196" s="30"/>
-      <c r="E196" s="143"/>
-      <c r="F196" s="143"/>
-      <c r="G196" s="143"/>
-      <c r="H196" s="143"/>
-      <c r="I196" s="143"/>
-      <c r="J196" s="143"/>
-      <c r="K196" s="143"/>
-      <c r="L196" s="143"/>
-      <c r="M196" s="143"/>
-      <c r="N196" s="143"/>
-      <c r="O196" s="143"/>
-      <c r="P196" s="143"/>
-      <c r="Q196" s="143"/>
-      <c r="R196" s="143"/>
-      <c r="S196" s="143"/>
-      <c r="T196" s="143"/>
-      <c r="U196" s="143"/>
-      <c r="V196" s="143"/>
-      <c r="W196" s="143"/>
-      <c r="X196" s="143"/>
-      <c r="Y196" s="143"/>
-      <c r="Z196" s="143"/>
-      <c r="AA196" s="143"/>
-      <c r="AB196" s="143"/>
-      <c r="AC196" s="143"/>
-      <c r="AD196" s="143"/>
-      <c r="AE196" s="143"/>
-      <c r="AF196" s="143"/>
-      <c r="AG196" s="143"/>
-      <c r="AH196" s="143"/>
-      <c r="AI196" s="143"/>
-      <c r="AJ196" s="143"/>
-      <c r="AK196" s="143"/>
-      <c r="AL196" s="143"/>
-      <c r="AM196" s="143"/>
-      <c r="AN196" s="143"/>
-      <c r="AO196" s="143"/>
-      <c r="AP196" s="143"/>
-      <c r="AQ196" s="143"/>
-      <c r="AR196" s="143"/>
-      <c r="AS196" s="143"/>
-      <c r="AT196" s="143"/>
-      <c r="AU196" s="143"/>
-      <c r="AV196" s="143"/>
-      <c r="AW196" s="143"/>
-      <c r="AX196" s="143"/>
-      <c r="AY196" s="143"/>
       <c r="AZ196" s="31"/>
       <c r="BA196" s="31"/>
       <c r="BB196" s="31"/>
@@ -28459,53 +28413,9 @@
       <c r="C198" s="30"/>
       <c r="D198" s="30"/>
       <c r="E198" s="30"/>
-      <c r="F198" s="143"/>
-      <c r="G198" s="143"/>
-      <c r="H198" s="143"/>
-      <c r="I198" s="143"/>
-      <c r="J198" s="143"/>
-      <c r="K198" s="143" t="s">
+      <c r="K198" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="L198" s="143"/>
-      <c r="M198" s="143"/>
-      <c r="N198" s="143"/>
-      <c r="O198" s="143"/>
-      <c r="P198" s="143"/>
-      <c r="Q198" s="143"/>
-      <c r="R198" s="143"/>
-      <c r="S198" s="143"/>
-      <c r="T198" s="143"/>
-      <c r="U198" s="143"/>
-      <c r="V198" s="143"/>
-      <c r="W198" s="143"/>
-      <c r="X198" s="143"/>
-      <c r="Y198" s="143"/>
-      <c r="Z198" s="143"/>
-      <c r="AA198" s="143"/>
-      <c r="AB198" s="143"/>
-      <c r="AC198" s="143"/>
-      <c r="AD198" s="143"/>
-      <c r="AE198" s="143"/>
-      <c r="AF198" s="143"/>
-      <c r="AG198" s="143"/>
-      <c r="AH198" s="143"/>
-      <c r="AI198" s="143"/>
-      <c r="AJ198" s="143"/>
-      <c r="AK198" s="143"/>
-      <c r="AL198" s="143"/>
-      <c r="AM198" s="143"/>
-      <c r="AN198" s="143"/>
-      <c r="AO198" s="143"/>
-      <c r="AP198" s="143"/>
-      <c r="AQ198" s="143"/>
-      <c r="AR198" s="143"/>
-      <c r="AS198" s="143"/>
-      <c r="AT198" s="143"/>
-      <c r="AU198" s="143"/>
-      <c r="AV198" s="143"/>
-      <c r="AW198" s="143"/>
-      <c r="AX198" s="143"/>
       <c r="AY198" s="31"/>
       <c r="AZ198" s="31"/>
       <c r="BA198" s="31"/>
@@ -28516,52 +28426,9 @@
       <c r="C199" s="30"/>
       <c r="D199" s="30"/>
       <c r="E199" s="30"/>
-      <c r="F199" s="143"/>
-      <c r="G199" s="143"/>
-      <c r="H199" s="143"/>
-      <c r="I199" s="143"/>
-      <c r="J199" s="143"/>
-      <c r="L199" s="144" t="s">
+      <c r="L199" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="M199" s="143"/>
-      <c r="N199" s="143"/>
-      <c r="O199" s="143"/>
-      <c r="P199" s="143"/>
-      <c r="Q199" s="143"/>
-      <c r="R199" s="143"/>
-      <c r="S199" s="143"/>
-      <c r="T199" s="143"/>
-      <c r="U199" s="143"/>
-      <c r="V199" s="143"/>
-      <c r="W199" s="143"/>
-      <c r="X199" s="143"/>
-      <c r="Y199" s="143"/>
-      <c r="Z199" s="143"/>
-      <c r="AA199" s="143"/>
-      <c r="AB199" s="143"/>
-      <c r="AC199" s="143"/>
-      <c r="AD199" s="143"/>
-      <c r="AE199" s="143"/>
-      <c r="AF199" s="143"/>
-      <c r="AG199" s="143"/>
-      <c r="AH199" s="143"/>
-      <c r="AI199" s="143"/>
-      <c r="AJ199" s="143"/>
-      <c r="AK199" s="143"/>
-      <c r="AL199" s="143"/>
-      <c r="AM199" s="143"/>
-      <c r="AN199" s="143"/>
-      <c r="AO199" s="143"/>
-      <c r="AP199" s="143"/>
-      <c r="AQ199" s="143"/>
-      <c r="AR199" s="143"/>
-      <c r="AS199" s="143"/>
-      <c r="AT199" s="143"/>
-      <c r="AU199" s="143"/>
-      <c r="AV199" s="143"/>
-      <c r="AW199" s="143"/>
-      <c r="AX199" s="143"/>
       <c r="AY199" s="31"/>
       <c r="AZ199" s="31"/>
       <c r="BA199" s="31"/>
@@ -28572,53 +28439,12 @@
       <c r="C200" s="30"/>
       <c r="D200" s="30"/>
       <c r="E200" s="30"/>
-      <c r="F200" s="143"/>
-      <c r="G200" s="143"/>
-      <c r="H200" s="143"/>
-      <c r="I200" s="143"/>
-      <c r="J200" s="143"/>
-      <c r="L200" s="144" t="s">
+      <c r="L200" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="M200" s="143"/>
-      <c r="N200" s="143"/>
-      <c r="O200" s="143"/>
-      <c r="P200" s="143"/>
-      <c r="Q200" s="143"/>
-      <c r="R200" s="143"/>
-      <c r="S200" s="143"/>
-      <c r="T200" s="143"/>
-      <c r="U200" s="143"/>
-      <c r="V200" s="143"/>
-      <c r="W200" s="143"/>
-      <c r="X200" s="143"/>
-      <c r="Y200" s="143"/>
-      <c r="Z200" s="143"/>
-      <c r="AA200" s="143"/>
-      <c r="AB200" s="143"/>
-      <c r="AC200" s="143"/>
-      <c r="AD200" s="143"/>
-      <c r="AE200" s="143"/>
-      <c r="AF200" s="143"/>
-      <c r="AH200" s="143"/>
-      <c r="AI200" s="143" t="s">
+      <c r="AI200" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AJ200" s="143"/>
-      <c r="AK200" s="143"/>
-      <c r="AL200" s="143"/>
-      <c r="AM200" s="143"/>
-      <c r="AN200" s="143"/>
-      <c r="AO200" s="143"/>
-      <c r="AP200" s="143"/>
-      <c r="AQ200" s="143"/>
-      <c r="AR200" s="143"/>
-      <c r="AS200" s="143"/>
-      <c r="AT200" s="143"/>
-      <c r="AU200" s="143"/>
-      <c r="AV200" s="143"/>
-      <c r="AW200" s="143"/>
-      <c r="AX200" s="143"/>
       <c r="AY200" s="31"/>
       <c r="AZ200" s="31"/>
       <c r="BA200" s="31"/>
@@ -28629,52 +28455,9 @@
       <c r="C201" s="30"/>
       <c r="D201" s="30"/>
       <c r="E201" s="30"/>
-      <c r="F201" s="143"/>
-      <c r="G201" s="143"/>
-      <c r="H201" s="143"/>
-      <c r="I201" s="143"/>
-      <c r="J201" s="143"/>
-      <c r="L201" s="145" t="s">
+      <c r="L201" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="M201" s="143"/>
-      <c r="N201" s="143"/>
-      <c r="O201" s="143"/>
-      <c r="P201" s="143"/>
-      <c r="Q201" s="143"/>
-      <c r="R201" s="143"/>
-      <c r="S201" s="143"/>
-      <c r="T201" s="143"/>
-      <c r="U201" s="143"/>
-      <c r="V201" s="143"/>
-      <c r="W201" s="143"/>
-      <c r="X201" s="143"/>
-      <c r="Y201" s="143"/>
-      <c r="Z201" s="143"/>
-      <c r="AA201" s="143"/>
-      <c r="AB201" s="143"/>
-      <c r="AC201" s="143"/>
-      <c r="AD201" s="143"/>
-      <c r="AE201" s="143"/>
-      <c r="AF201" s="143"/>
-      <c r="AG201" s="143"/>
-      <c r="AH201" s="143"/>
-      <c r="AI201" s="143"/>
-      <c r="AJ201" s="143"/>
-      <c r="AK201" s="143"/>
-      <c r="AL201" s="143"/>
-      <c r="AM201" s="143"/>
-      <c r="AN201" s="143"/>
-      <c r="AO201" s="143"/>
-      <c r="AP201" s="143"/>
-      <c r="AQ201" s="143"/>
-      <c r="AR201" s="143"/>
-      <c r="AS201" s="143"/>
-      <c r="AT201" s="143"/>
-      <c r="AU201" s="143"/>
-      <c r="AV201" s="143"/>
-      <c r="AW201" s="143"/>
-      <c r="AX201" s="143"/>
       <c r="AY201" s="31"/>
       <c r="AZ201" s="31"/>
       <c r="BA201" s="31"/>
@@ -28685,51 +28468,6 @@
       <c r="C202" s="30"/>
       <c r="D202" s="30"/>
       <c r="E202" s="30"/>
-      <c r="F202" s="143"/>
-      <c r="G202" s="143"/>
-      <c r="H202" s="143"/>
-      <c r="I202" s="143"/>
-      <c r="J202" s="143"/>
-      <c r="K202" s="143"/>
-      <c r="L202" s="143"/>
-      <c r="M202" s="143"/>
-      <c r="N202" s="143"/>
-      <c r="O202" s="143"/>
-      <c r="P202" s="143"/>
-      <c r="Q202" s="143"/>
-      <c r="R202" s="143"/>
-      <c r="S202" s="143"/>
-      <c r="T202" s="143"/>
-      <c r="U202" s="143"/>
-      <c r="V202" s="143"/>
-      <c r="W202" s="143"/>
-      <c r="X202" s="143"/>
-      <c r="Y202" s="143"/>
-      <c r="Z202" s="143"/>
-      <c r="AA202" s="143"/>
-      <c r="AB202" s="143"/>
-      <c r="AC202" s="143"/>
-      <c r="AD202" s="143"/>
-      <c r="AE202" s="143"/>
-      <c r="AF202" s="143"/>
-      <c r="AG202" s="143"/>
-      <c r="AH202" s="143"/>
-      <c r="AI202" s="143"/>
-      <c r="AJ202" s="143"/>
-      <c r="AK202" s="143"/>
-      <c r="AL202" s="143"/>
-      <c r="AM202" s="143"/>
-      <c r="AN202" s="143"/>
-      <c r="AO202" s="143"/>
-      <c r="AP202" s="143"/>
-      <c r="AQ202" s="143"/>
-      <c r="AR202" s="143"/>
-      <c r="AS202" s="143"/>
-      <c r="AT202" s="143"/>
-      <c r="AU202" s="143"/>
-      <c r="AV202" s="143"/>
-      <c r="AW202" s="143"/>
-      <c r="AX202" s="143"/>
       <c r="AY202" s="31"/>
       <c r="AZ202" s="31"/>
       <c r="BA202" s="31"/>
@@ -28740,50 +28478,9 @@
       <c r="C203" s="30"/>
       <c r="D203" s="30"/>
       <c r="E203" s="30"/>
-      <c r="F203" s="143"/>
-      <c r="G203" s="143"/>
-      <c r="H203" s="143"/>
-      <c r="I203" s="143"/>
-      <c r="J203" s="143"/>
-      <c r="K203" s="143"/>
-      <c r="L203" s="143"/>
-      <c r="M203" s="143"/>
-      <c r="N203" s="143"/>
-      <c r="O203" s="143"/>
-      <c r="P203" s="143"/>
-      <c r="Q203" s="143"/>
-      <c r="R203" s="143"/>
-      <c r="S203" s="143"/>
-      <c r="T203" s="143"/>
-      <c r="U203" s="143"/>
-      <c r="V203" s="143"/>
-      <c r="W203" s="143"/>
-      <c r="X203" s="143"/>
-      <c r="Y203" s="143"/>
-      <c r="Z203" s="143"/>
-      <c r="AA203" s="143"/>
-      <c r="AE203" s="143" t="s">
+      <c r="AE203" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AF203" s="143"/>
-      <c r="AG203" s="143"/>
-      <c r="AH203" s="143"/>
-      <c r="AI203" s="143"/>
-      <c r="AJ203" s="143"/>
-      <c r="AK203" s="143"/>
-      <c r="AL203" s="143"/>
-      <c r="AM203" s="143"/>
-      <c r="AN203" s="143"/>
-      <c r="AO203" s="143"/>
-      <c r="AP203" s="143"/>
-      <c r="AQ203" s="143"/>
-      <c r="AR203" s="143"/>
-      <c r="AS203" s="143"/>
-      <c r="AT203" s="143"/>
-      <c r="AU203" s="143"/>
-      <c r="AV203" s="143"/>
-      <c r="AW203" s="143"/>
-      <c r="AX203" s="143"/>
       <c r="AY203" s="31"/>
       <c r="AZ203" s="31"/>
       <c r="BA203" s="31"/>
@@ -28794,49 +28491,9 @@
       <c r="C204" s="30"/>
       <c r="D204" s="30"/>
       <c r="E204" s="30"/>
-      <c r="F204" s="143"/>
-      <c r="G204" s="143"/>
-      <c r="H204" s="143"/>
-      <c r="I204" s="143"/>
-      <c r="J204" s="143"/>
-      <c r="K204" s="143"/>
-      <c r="L204" s="143"/>
-      <c r="M204" s="143"/>
-      <c r="N204" s="143"/>
-      <c r="O204" s="143"/>
-      <c r="P204" s="143"/>
-      <c r="Q204" s="143"/>
-      <c r="R204" s="143"/>
-      <c r="S204" s="143"/>
-      <c r="T204" s="143"/>
-      <c r="U204" s="143"/>
-      <c r="V204" s="143"/>
-      <c r="W204" s="143"/>
-      <c r="X204" s="143"/>
-      <c r="Y204" s="143"/>
-      <c r="Z204" s="143"/>
-      <c r="AA204" s="143"/>
-      <c r="AF204" s="145" t="s">
+      <c r="AF204" s="78" t="s">
         <v>398</v>
       </c>
-      <c r="AG204" s="143"/>
-      <c r="AH204" s="143"/>
-      <c r="AI204" s="143"/>
-      <c r="AJ204" s="143"/>
-      <c r="AK204" s="143"/>
-      <c r="AL204" s="143"/>
-      <c r="AM204" s="143"/>
-      <c r="AN204" s="143"/>
-      <c r="AO204" s="143"/>
-      <c r="AP204" s="143"/>
-      <c r="AQ204" s="143"/>
-      <c r="AR204" s="143"/>
-      <c r="AS204" s="143"/>
-      <c r="AT204" s="143"/>
-      <c r="AU204" s="143"/>
-      <c r="AV204" s="143"/>
-      <c r="AW204" s="143"/>
-      <c r="AX204" s="143"/>
       <c r="AY204" s="31"/>
       <c r="AZ204" s="31"/>
       <c r="BA204" s="31"/>
@@ -28847,50 +28504,9 @@
       <c r="C205" s="30"/>
       <c r="D205" s="30"/>
       <c r="E205" s="30"/>
-      <c r="F205" s="143"/>
-      <c r="G205" s="143"/>
-      <c r="H205" s="143"/>
-      <c r="I205" s="143"/>
-      <c r="J205" s="143"/>
-      <c r="K205" s="143"/>
-      <c r="L205" s="143"/>
-      <c r="M205" s="143"/>
-      <c r="N205" s="143"/>
-      <c r="O205" s="143"/>
-      <c r="P205" s="143"/>
-      <c r="Q205" s="143"/>
-      <c r="R205" s="143"/>
-      <c r="S205" s="143"/>
-      <c r="T205" s="143"/>
-      <c r="U205" s="143"/>
-      <c r="V205" s="143"/>
-      <c r="W205" s="143"/>
-      <c r="X205" s="143"/>
-      <c r="Y205" s="143"/>
-      <c r="Z205" s="143"/>
-      <c r="AA205" s="143"/>
-      <c r="AE205" s="143" t="s">
+      <c r="AE205" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="AF205" s="143"/>
-      <c r="AG205" s="143"/>
-      <c r="AH205" s="143"/>
-      <c r="AI205" s="143"/>
-      <c r="AJ205" s="143"/>
-      <c r="AK205" s="143"/>
-      <c r="AL205" s="143"/>
-      <c r="AM205" s="143"/>
-      <c r="AN205" s="143"/>
-      <c r="AO205" s="143"/>
-      <c r="AP205" s="143"/>
-      <c r="AQ205" s="143"/>
-      <c r="AR205" s="143"/>
-      <c r="AS205" s="143"/>
-      <c r="AT205" s="143"/>
-      <c r="AU205" s="143"/>
-      <c r="AV205" s="143"/>
-      <c r="AW205" s="143"/>
-      <c r="AX205" s="143"/>
       <c r="AY205" s="31"/>
       <c r="AZ205" s="31"/>
       <c r="BA205" s="31"/>
@@ -28901,49 +28517,9 @@
       <c r="C206" s="30"/>
       <c r="D206" s="30"/>
       <c r="E206" s="30"/>
-      <c r="F206" s="143"/>
-      <c r="G206" s="143"/>
-      <c r="H206" s="143"/>
-      <c r="I206" s="143"/>
-      <c r="J206" s="143"/>
-      <c r="K206" s="143"/>
-      <c r="L206" s="143"/>
-      <c r="M206" s="143"/>
-      <c r="N206" s="143"/>
-      <c r="O206" s="143"/>
-      <c r="P206" s="143"/>
-      <c r="Q206" s="143"/>
-      <c r="R206" s="143"/>
-      <c r="S206" s="143"/>
-      <c r="T206" s="143"/>
-      <c r="U206" s="143"/>
-      <c r="V206" s="143"/>
-      <c r="W206" s="143"/>
-      <c r="X206" s="143"/>
-      <c r="Y206" s="143"/>
-      <c r="Z206" s="143"/>
-      <c r="AA206" s="143"/>
-      <c r="AF206" s="144" t="s">
+      <c r="AF206" s="77" t="s">
         <v>397</v>
       </c>
-      <c r="AG206" s="143"/>
-      <c r="AH206" s="143"/>
-      <c r="AI206" s="143"/>
-      <c r="AJ206" s="143"/>
-      <c r="AK206" s="143"/>
-      <c r="AL206" s="143"/>
-      <c r="AM206" s="143"/>
-      <c r="AN206" s="143"/>
-      <c r="AO206" s="143"/>
-      <c r="AP206" s="143"/>
-      <c r="AQ206" s="143"/>
-      <c r="AR206" s="143"/>
-      <c r="AS206" s="143"/>
-      <c r="AT206" s="143"/>
-      <c r="AU206" s="143"/>
-      <c r="AV206" s="143"/>
-      <c r="AW206" s="143"/>
-      <c r="AX206" s="143"/>
       <c r="AY206" s="31"/>
       <c r="AZ206" s="31"/>
       <c r="BA206" s="31"/>
@@ -28954,49 +28530,9 @@
       <c r="C207" s="30"/>
       <c r="D207" s="30"/>
       <c r="E207" s="30"/>
-      <c r="F207" s="143"/>
-      <c r="G207" s="143"/>
-      <c r="H207" s="143"/>
-      <c r="I207" s="143"/>
-      <c r="J207" s="143"/>
-      <c r="K207" s="143"/>
-      <c r="L207" s="143"/>
-      <c r="M207" s="143"/>
-      <c r="N207" s="143"/>
-      <c r="O207" s="143"/>
-      <c r="P207" s="143"/>
-      <c r="Q207" s="143"/>
-      <c r="R207" s="143"/>
-      <c r="S207" s="143"/>
-      <c r="T207" s="143"/>
-      <c r="U207" s="143"/>
-      <c r="V207" s="143"/>
-      <c r="W207" s="143"/>
-      <c r="X207" s="143"/>
-      <c r="Y207" s="143"/>
-      <c r="Z207" s="143"/>
-      <c r="AA207" s="143"/>
-      <c r="AF207" s="144" t="s">
+      <c r="AF207" s="77" t="s">
         <v>396</v>
       </c>
-      <c r="AG207" s="143"/>
-      <c r="AH207" s="143"/>
-      <c r="AI207" s="143"/>
-      <c r="AJ207" s="143"/>
-      <c r="AK207" s="143"/>
-      <c r="AL207" s="143"/>
-      <c r="AM207" s="143"/>
-      <c r="AN207" s="143"/>
-      <c r="AO207" s="143"/>
-      <c r="AP207" s="143"/>
-      <c r="AQ207" s="143"/>
-      <c r="AR207" s="143"/>
-      <c r="AS207" s="143"/>
-      <c r="AT207" s="143"/>
-      <c r="AU207" s="143"/>
-      <c r="AV207" s="143"/>
-      <c r="AW207" s="143"/>
-      <c r="AX207" s="143"/>
       <c r="AY207" s="31"/>
       <c r="AZ207" s="31"/>
       <c r="BA207" s="31"/>
@@ -29007,49 +28543,9 @@
       <c r="C208" s="30"/>
       <c r="D208" s="30"/>
       <c r="E208" s="30"/>
-      <c r="F208" s="143"/>
-      <c r="G208" s="143"/>
-      <c r="H208" s="143"/>
-      <c r="I208" s="143"/>
-      <c r="J208" s="143"/>
-      <c r="K208" s="143"/>
-      <c r="L208" s="143"/>
-      <c r="M208" s="143"/>
-      <c r="N208" s="143"/>
-      <c r="O208" s="143"/>
-      <c r="P208" s="143"/>
-      <c r="Q208" s="143"/>
-      <c r="R208" s="143"/>
-      <c r="S208" s="143"/>
-      <c r="T208" s="143"/>
-      <c r="U208" s="143"/>
-      <c r="V208" s="143"/>
-      <c r="W208" s="143"/>
-      <c r="X208" s="143"/>
-      <c r="Y208" s="143"/>
-      <c r="Z208" s="143"/>
-      <c r="AA208" s="143"/>
-      <c r="AF208" s="145" t="s">
+      <c r="AF208" s="78" t="s">
         <v>395</v>
       </c>
-      <c r="AG208" s="143"/>
-      <c r="AH208" s="143"/>
-      <c r="AI208" s="143"/>
-      <c r="AJ208" s="143"/>
-      <c r="AK208" s="143"/>
-      <c r="AL208" s="143"/>
-      <c r="AM208" s="143"/>
-      <c r="AN208" s="143"/>
-      <c r="AO208" s="143"/>
-      <c r="AP208" s="143"/>
-      <c r="AQ208" s="143"/>
-      <c r="AR208" s="143"/>
-      <c r="AS208" s="143"/>
-      <c r="AT208" s="143"/>
-      <c r="AU208" s="143"/>
-      <c r="AV208" s="143"/>
-      <c r="AW208" s="143"/>
-      <c r="AX208" s="143"/>
       <c r="AY208" s="31"/>
       <c r="AZ208" s="31"/>
       <c r="BA208" s="31"/>
@@ -29060,51 +28556,6 @@
       <c r="C209" s="30"/>
       <c r="D209" s="30"/>
       <c r="E209" s="30"/>
-      <c r="F209" s="143"/>
-      <c r="G209" s="143"/>
-      <c r="H209" s="143"/>
-      <c r="I209" s="143"/>
-      <c r="J209" s="143"/>
-      <c r="K209" s="143"/>
-      <c r="L209" s="143"/>
-      <c r="M209" s="143"/>
-      <c r="N209" s="143"/>
-      <c r="O209" s="143"/>
-      <c r="P209" s="143"/>
-      <c r="Q209" s="143"/>
-      <c r="R209" s="143"/>
-      <c r="S209" s="143"/>
-      <c r="T209" s="143"/>
-      <c r="U209" s="143"/>
-      <c r="V209" s="143"/>
-      <c r="W209" s="143"/>
-      <c r="X209" s="143"/>
-      <c r="Y209" s="143"/>
-      <c r="Z209" s="143"/>
-      <c r="AA209" s="143"/>
-      <c r="AB209" s="143"/>
-      <c r="AC209" s="143"/>
-      <c r="AD209" s="143"/>
-      <c r="AE209" s="143"/>
-      <c r="AF209" s="143"/>
-      <c r="AG209" s="143"/>
-      <c r="AH209" s="143"/>
-      <c r="AI209" s="143"/>
-      <c r="AJ209" s="143"/>
-      <c r="AK209" s="143"/>
-      <c r="AL209" s="143"/>
-      <c r="AM209" s="143"/>
-      <c r="AN209" s="143"/>
-      <c r="AO209" s="143"/>
-      <c r="AP209" s="143"/>
-      <c r="AQ209" s="143"/>
-      <c r="AR209" s="143"/>
-      <c r="AS209" s="143"/>
-      <c r="AT209" s="143"/>
-      <c r="AU209" s="143"/>
-      <c r="AV209" s="143"/>
-      <c r="AW209" s="143"/>
-      <c r="AX209" s="143"/>
       <c r="AY209" s="31"/>
       <c r="AZ209" s="31"/>
       <c r="BA209" s="31"/>
@@ -29115,53 +28566,9 @@
       <c r="C210" s="30"/>
       <c r="D210" s="30"/>
       <c r="E210" s="30"/>
-      <c r="F210" s="143"/>
-      <c r="G210" s="143"/>
-      <c r="H210" s="143"/>
-      <c r="I210" s="143"/>
-      <c r="J210" s="143"/>
-      <c r="K210" s="143"/>
-      <c r="L210" s="143"/>
-      <c r="M210" s="143"/>
-      <c r="N210" s="143"/>
-      <c r="O210" s="143"/>
-      <c r="P210" s="143"/>
-      <c r="Q210" s="143"/>
-      <c r="R210" s="143"/>
-      <c r="S210" s="143"/>
-      <c r="T210" s="143" t="s">
+      <c r="T210" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="U210" s="143"/>
-      <c r="V210" s="143"/>
-      <c r="W210" s="143"/>
-      <c r="X210" s="143"/>
-      <c r="Y210" s="143"/>
-      <c r="Z210" s="143"/>
-      <c r="AA210" s="143"/>
-      <c r="AB210" s="143"/>
-      <c r="AC210" s="143"/>
-      <c r="AD210" s="143"/>
-      <c r="AE210" s="143"/>
-      <c r="AF210" s="143"/>
-      <c r="AG210" s="143"/>
-      <c r="AH210" s="143"/>
-      <c r="AI210" s="143"/>
-      <c r="AJ210" s="143"/>
-      <c r="AK210" s="143"/>
-      <c r="AL210" s="143"/>
-      <c r="AM210" s="143"/>
-      <c r="AN210" s="143"/>
-      <c r="AO210" s="143"/>
-      <c r="AP210" s="143"/>
-      <c r="AQ210" s="143"/>
-      <c r="AR210" s="143"/>
-      <c r="AS210" s="143"/>
-      <c r="AT210" s="143"/>
-      <c r="AU210" s="143"/>
-      <c r="AV210" s="143"/>
-      <c r="AW210" s="143"/>
-      <c r="AX210" s="143"/>
       <c r="AY210" s="31"/>
       <c r="AZ210" s="31"/>
       <c r="BA210" s="31"/>
@@ -29226,53 +28633,6 @@
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
       <c r="D212" s="30"/>
-      <c r="E212" s="143"/>
-      <c r="F212" s="143"/>
-      <c r="G212" s="143"/>
-      <c r="H212" s="143"/>
-      <c r="I212" s="143"/>
-      <c r="J212" s="143"/>
-      <c r="K212" s="143"/>
-      <c r="L212" s="143"/>
-      <c r="M212" s="143"/>
-      <c r="N212" s="143"/>
-      <c r="O212" s="143"/>
-      <c r="P212" s="143"/>
-      <c r="Q212" s="143"/>
-      <c r="R212" s="143"/>
-      <c r="S212" s="143"/>
-      <c r="T212" s="143"/>
-      <c r="U212" s="143"/>
-      <c r="V212" s="143"/>
-      <c r="W212" s="143"/>
-      <c r="X212" s="143"/>
-      <c r="Y212" s="143"/>
-      <c r="Z212" s="143"/>
-      <c r="AA212" s="143"/>
-      <c r="AB212" s="143"/>
-      <c r="AC212" s="143"/>
-      <c r="AD212" s="143"/>
-      <c r="AE212" s="143"/>
-      <c r="AF212" s="143"/>
-      <c r="AG212" s="143"/>
-      <c r="AH212" s="143"/>
-      <c r="AI212" s="143"/>
-      <c r="AJ212" s="143"/>
-      <c r="AK212" s="143"/>
-      <c r="AL212" s="143"/>
-      <c r="AM212" s="143"/>
-      <c r="AN212" s="143"/>
-      <c r="AO212" s="143"/>
-      <c r="AP212" s="143"/>
-      <c r="AQ212" s="143"/>
-      <c r="AR212" s="143"/>
-      <c r="AS212" s="143"/>
-      <c r="AT212" s="143"/>
-      <c r="AU212" s="143"/>
-      <c r="AV212" s="143"/>
-      <c r="AW212" s="143"/>
-      <c r="AX212" s="143"/>
-      <c r="AY212" s="143"/>
       <c r="AZ212" s="31"/>
       <c r="BA212" s="31"/>
       <c r="BB212" s="31"/>
@@ -30337,118 +29697,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="96"/>
-      <c r="Z2" s="96"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="96"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="96"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="97"/>
-      <c r="AV2" s="116" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="99"/>
+      <c r="AV2" s="118" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="117"/>
-      <c r="AX2" s="117"/>
-      <c r="AY2" s="117"/>
-      <c r="AZ2" s="117"/>
-      <c r="BA2" s="117"/>
-      <c r="BB2" s="118"/>
+      <c r="AW2" s="119"/>
+      <c r="AX2" s="119"/>
+      <c r="AY2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="119"/>
+      <c r="BB2" s="120"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="99"/>
-      <c r="AK3" s="99"/>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="99"/>
-      <c r="AR3" s="99"/>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="100"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="120"/>
-      <c r="AX3" s="120"/>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="120"/>
-      <c r="BB3" s="121"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="101"/>
+      <c r="AL3" s="101"/>
+      <c r="AM3" s="101"/>
+      <c r="AN3" s="101"/>
+      <c r="AO3" s="101"/>
+      <c r="AP3" s="101"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="102"/>
+      <c r="AV3" s="121"/>
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="123"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="B5" s="2"/>
@@ -32587,118 +31947,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="122" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="124"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="126"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="127"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="129"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="E5" s="35" t="s">
@@ -33275,118 +32635,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="122" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="124" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="123"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="124"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="126"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="125"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="127"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="127"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="129"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="C5" s="1" t="s">
@@ -33468,9 +32828,9 @@
     <row r="9" spans="2:54" ht="15" customHeight="1">
       <c r="C9" s="30"/>
       <c r="X9" s="30"/>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="134"/>
-      <c r="AJ9" s="134"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="136"/>
+      <c r="AJ9" s="136"/>
       <c r="AR9" s="31"/>
     </row>
     <row r="10" spans="2:54" ht="15" customHeight="1">
@@ -33503,7 +32863,7 @@
     </row>
     <row r="12" spans="2:54" ht="15" customHeight="1">
       <c r="C12" s="30"/>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="137" t="s">
         <v>214</v>
       </c>
       <c r="I12" s="30"/>
@@ -33516,7 +32876,7 @@
       <c r="P12" s="42"/>
       <c r="Q12" s="31"/>
       <c r="X12" s="30"/>
-      <c r="AB12" s="135" t="s">
+      <c r="AB12" s="137" t="s">
         <v>214</v>
       </c>
       <c r="AE12" s="30"/>
@@ -33532,7 +32892,7 @@
     </row>
     <row r="13" spans="2:54" ht="15" customHeight="1">
       <c r="C13" s="30"/>
-      <c r="F13" s="135"/>
+      <c r="F13" s="137"/>
       <c r="I13" s="39"/>
       <c r="J13" s="33"/>
       <c r="K13" s="34"/>
@@ -33543,7 +32903,7 @@
       <c r="P13" s="33"/>
       <c r="Q13" s="34"/>
       <c r="X13" s="30"/>
-      <c r="AB13" s="135"/>
+      <c r="AB13" s="137"/>
       <c r="AE13" s="39"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="34"/>
@@ -33557,7 +32917,7 @@
     </row>
     <row r="14" spans="2:54" ht="15" customHeight="1">
       <c r="C14" s="30"/>
-      <c r="F14" s="135"/>
+      <c r="F14" s="137"/>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
       <c r="K14" s="38"/>
@@ -33568,7 +32928,7 @@
       <c r="P14" s="28"/>
       <c r="Q14" s="38"/>
       <c r="X14" s="30"/>
-      <c r="AB14" s="135"/>
+      <c r="AB14" s="137"/>
       <c r="AE14" s="27"/>
       <c r="AF14" s="28"/>
       <c r="AG14" s="38"/>
@@ -33607,7 +32967,7 @@
     </row>
     <row r="16" spans="2:54" ht="15" customHeight="1">
       <c r="C16" s="30"/>
-      <c r="F16" s="136" t="s">
+      <c r="F16" s="138" t="s">
         <v>215</v>
       </c>
       <c r="I16" s="39"/>
@@ -33620,7 +32980,7 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="34"/>
       <c r="X16" s="30"/>
-      <c r="AB16" s="136" t="s">
+      <c r="AB16" s="138" t="s">
         <v>215</v>
       </c>
       <c r="AE16" s="39"/>
@@ -33636,7 +32996,7 @@
     </row>
     <row r="17" spans="3:44" ht="15" customHeight="1">
       <c r="C17" s="30"/>
-      <c r="F17" s="136"/>
+      <c r="F17" s="138"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="38"/>
@@ -33647,7 +33007,7 @@
       <c r="P17" s="28"/>
       <c r="Q17" s="38"/>
       <c r="X17" s="30"/>
-      <c r="AB17" s="136"/>
+      <c r="AB17" s="138"/>
       <c r="AE17" s="27"/>
       <c r="AF17" s="28"/>
       <c r="AG17" s="38"/>
@@ -33661,7 +33021,7 @@
     </row>
     <row r="18" spans="3:44" ht="15" customHeight="1">
       <c r="C18" s="30"/>
-      <c r="F18" s="136"/>
+      <c r="F18" s="138"/>
       <c r="I18" s="30"/>
       <c r="J18" s="42"/>
       <c r="K18" s="31"/>
@@ -33672,7 +33032,7 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="31"/>
       <c r="X18" s="30"/>
-      <c r="AB18" s="136"/>
+      <c r="AB18" s="138"/>
       <c r="AE18" s="30"/>
       <c r="AF18" s="42"/>
       <c r="AG18" s="31"/>
@@ -33849,9 +33209,9 @@
     </row>
     <row r="32" spans="3:44" ht="15" customHeight="1">
       <c r="C32" s="30"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
       <c r="W32" s="31"/>
     </row>
     <row r="33" spans="3:23" ht="15" customHeight="1">
@@ -33873,7 +33233,7 @@
     </row>
     <row r="35" spans="3:23" ht="15" customHeight="1">
       <c r="C35" s="30"/>
-      <c r="G35" s="135" t="s">
+      <c r="G35" s="137" t="s">
         <v>214</v>
       </c>
       <c r="J35" s="30"/>
@@ -33889,7 +33249,7 @@
     </row>
     <row r="36" spans="3:23" ht="15" customHeight="1">
       <c r="C36" s="30"/>
-      <c r="G36" s="135"/>
+      <c r="G36" s="137"/>
       <c r="J36" s="39"/>
       <c r="K36" s="33"/>
       <c r="L36" s="34"/>
@@ -33903,7 +33263,7 @@
     </row>
     <row r="37" spans="3:23" ht="15" customHeight="1">
       <c r="C37" s="30"/>
-      <c r="G37" s="135"/>
+      <c r="G37" s="137"/>
       <c r="J37" s="27"/>
       <c r="K37" s="28"/>
       <c r="L37" s="38"/>
@@ -33931,7 +33291,7 @@
     </row>
     <row r="39" spans="3:23" ht="15" customHeight="1">
       <c r="C39" s="30"/>
-      <c r="G39" s="136" t="s">
+      <c r="G39" s="138" t="s">
         <v>215</v>
       </c>
       <c r="J39" s="39"/>
@@ -33947,7 +33307,7 @@
     </row>
     <row r="40" spans="3:23" ht="15" customHeight="1">
       <c r="C40" s="30"/>
-      <c r="G40" s="136"/>
+      <c r="G40" s="138"/>
       <c r="J40" s="27"/>
       <c r="K40" s="28"/>
       <c r="L40" s="38"/>
@@ -33963,7 +33323,7 @@
       <c r="C41" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="G41" s="136"/>
+      <c r="G41" s="138"/>
       <c r="J41" s="30"/>
       <c r="K41" s="42"/>
       <c r="L41" s="31"/>
@@ -34108,118 +33468,118 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:54" ht="15" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="137" t="s">
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="139"/>
+      <c r="AW2" s="140"/>
+      <c r="AX2" s="140"/>
+      <c r="AY2" s="140"/>
+      <c r="AZ2" s="140"/>
+      <c r="BA2" s="140"/>
+      <c r="BB2" s="141"/>
     </row>
     <row r="3" spans="2:54" ht="15" customHeight="1">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="132"/>
-      <c r="AJ3" s="132"/>
-      <c r="AK3" s="132"/>
-      <c r="AL3" s="132"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="132"/>
-      <c r="AP3" s="132"/>
-      <c r="AQ3" s="132"/>
-      <c r="AR3" s="132"/>
-      <c r="AS3" s="132"/>
-      <c r="AT3" s="132"/>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="140"/>
-      <c r="AW3" s="141"/>
-      <c r="AX3" s="141"/>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141"/>
-      <c r="BA3" s="141"/>
-      <c r="BB3" s="142"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="134"/>
+      <c r="AJ3" s="134"/>
+      <c r="AK3" s="134"/>
+      <c r="AL3" s="134"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="134"/>
+      <c r="AO3" s="134"/>
+      <c r="AP3" s="134"/>
+      <c r="AQ3" s="134"/>
+      <c r="AR3" s="134"/>
+      <c r="AS3" s="134"/>
+      <c r="AT3" s="134"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="142"/>
+      <c r="AW3" s="143"/>
+      <c r="AX3" s="143"/>
+      <c r="AY3" s="143"/>
+      <c r="AZ3" s="143"/>
+      <c r="BA3" s="143"/>
+      <c r="BB3" s="144"/>
     </row>
     <row r="5" spans="2:54" ht="15" customHeight="1">
       <c r="D5" s="1" t="s">
